--- a/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - kali.xlsx
+++ b/7. Statistic Analysis/Datasheets/JAVA/Tools/APR_Efficiency - kali.xlsx
@@ -14,7 +14,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+  <si>
+    <t xml:space="preserve"><![CDATA[Var1]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NewVar]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[CyclomaticComplexity(CC)]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[MaintainabilityIndex]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperands]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbUniqueOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[NbOperators]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLength]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[VocabularySize]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramVolume]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[DifficultyLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[ProgramLevel]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[EffortToImplement]]></t>
+  </si>
+  <si>
+    <t xml:space="preserve"><![CDATA[TimeToImplement]]></t>
+  </si>
   <si>
     <t xml:space="preserve"><![CDATA[Kali-A_Chart-1_Fixed]]></t>
   </si>
@@ -554,7 +641,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC525"/>
+  <dimension ref="A1:AC526"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -595,655 +682,655 @@
       <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="n" s="0">
-        <v>2.830000</v>
-      </c>
-      <c r="C1" t="n" s="0">
-        <v>79.980000</v>
-      </c>
-      <c r="D1" t="n" s="0">
-        <v>18.670000</v>
-      </c>
-      <c r="E1" t="n" s="0">
-        <v>6.580000</v>
-      </c>
-      <c r="F1" t="n" s="0">
-        <v>9.830000</v>
-      </c>
-      <c r="G1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="H1" t="n" s="0">
-        <v>9.290000</v>
-      </c>
-      <c r="I1" t="n" s="0">
-        <v>28.500000</v>
-      </c>
-      <c r="J1" t="n" s="0">
-        <v>46.750000</v>
-      </c>
-      <c r="K1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="L1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="M1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="N1" t="n" s="0">
-        <v>0.044000</v>
-      </c>
-      <c r="O1" t="n" s="0">
-        <v/>
+      <c r="B1" t="s" s="0">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s" s="0">
+        <v>14</v>
       </c>
       <c r="P1" t="s" s="0">
-        <v>1</v>
-      </c>
-      <c r="Q1" t="n" s="0">
-        <v>2.830000</v>
-      </c>
-      <c r="R1" t="n" s="0">
-        <v>79.980000</v>
-      </c>
-      <c r="S1" t="n" s="0">
-        <v>18.640000</v>
-      </c>
-      <c r="T1" t="n" s="0">
-        <v>6.590000</v>
-      </c>
-      <c r="U1" t="n" s="0">
-        <v>9.820000</v>
-      </c>
-      <c r="V1" t="n" s="0">
-        <v>2.710000</v>
-      </c>
-      <c r="W1" t="n" s="0">
-        <v>9.300000</v>
-      </c>
-      <c r="X1" t="n" s="0">
-        <v>28.450000</v>
-      </c>
-      <c r="Y1" t="n" s="0">
-        <v>46.820000</v>
-      </c>
-      <c r="Z1" t="n" s="0">
-        <v>0.045000</v>
-      </c>
-      <c r="AA1" t="n" s="0">
-        <v>0.023000</v>
-      </c>
-      <c r="AB1" t="n" s="0">
-        <v>0.790000</v>
-      </c>
-      <c r="AC1" t="n" s="0">
-        <v>0.044000</v>
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s" s="0">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s" s="0">
+        <v>28</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B2" t="n" s="0">
-        <v>2.240000</v>
+        <v>2.830000</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>83.680000</v>
+        <v>79.980000</v>
       </c>
       <c r="D2" t="n" s="0">
-        <v>9.380000</v>
+        <v>18.670000</v>
       </c>
       <c r="E2" t="n" s="0">
-        <v>4.290000</v>
+        <v>6.580000</v>
       </c>
       <c r="F2" t="n" s="0">
-        <v>5.710000</v>
+        <v>9.830000</v>
       </c>
       <c r="G2" t="n" s="0">
-        <v>2.590000</v>
+        <v>2.710000</v>
       </c>
       <c r="H2" t="n" s="0">
-        <v>6.880000</v>
+        <v>9.290000</v>
       </c>
       <c r="I2" t="n" s="0">
-        <v>15.090000</v>
+        <v>28.500000</v>
       </c>
       <c r="J2" t="n" s="0">
-        <v>28.850000</v>
+        <v>46.750000</v>
       </c>
       <c r="K2" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.045000</v>
       </c>
       <c r="L2" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.023000</v>
       </c>
       <c r="M2" t="n" s="0">
-        <v>0.830000</v>
+        <v>0.790000</v>
       </c>
       <c r="N2" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.044000</v>
       </c>
       <c r="O2" t="n" s="0">
         <v/>
       </c>
       <c r="P2" t="s" s="0">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="Q2" t="n" s="0">
-        <v>2.240000</v>
+        <v>2.830000</v>
       </c>
       <c r="R2" t="n" s="0">
-        <v>83.710000</v>
+        <v>79.980000</v>
       </c>
       <c r="S2" t="n" s="0">
-        <v>9.290000</v>
+        <v>18.640000</v>
       </c>
       <c r="T2" t="n" s="0">
-        <v>4.320000</v>
+        <v>6.590000</v>
       </c>
       <c r="U2" t="n" s="0">
-        <v>5.740000</v>
+        <v>9.820000</v>
       </c>
       <c r="V2" t="n" s="0">
-        <v>2.680000</v>
+        <v>2.710000</v>
       </c>
       <c r="W2" t="n" s="0">
-        <v>7.000000</v>
+        <v>9.300000</v>
       </c>
       <c r="X2" t="n" s="0">
-        <v>15.030000</v>
+        <v>28.450000</v>
       </c>
       <c r="Y2" t="n" s="0">
-        <v>29.460000</v>
+        <v>46.820000</v>
       </c>
       <c r="Z2" t="n" s="0">
-        <v>0.059000</v>
+        <v>0.045000</v>
       </c>
       <c r="AA2" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.023000</v>
       </c>
       <c r="AB2" t="n" s="0">
-        <v>0.830000</v>
+        <v>0.790000</v>
       </c>
       <c r="AC2" t="n" s="0">
-        <v>0.046000</v>
+        <v>0.044000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="B3" t="n" s="0">
-        <v>5.230000</v>
+        <v>2.240000</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>69.680000</v>
+        <v>83.680000</v>
       </c>
       <c r="D3" t="n" s="0">
-        <v>18.450000</v>
+        <v>9.380000</v>
       </c>
       <c r="E3" t="n" s="0">
-        <v>6.650000</v>
+        <v>4.290000</v>
       </c>
       <c r="F3" t="n" s="0">
-        <v>18.290000</v>
+        <v>5.710000</v>
       </c>
       <c r="G3" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.590000</v>
       </c>
       <c r="H3" t="n" s="0">
-        <v>11.650000</v>
+        <v>6.880000</v>
       </c>
       <c r="I3" t="n" s="0">
-        <v>36.740000</v>
+        <v>15.090000</v>
       </c>
       <c r="J3" t="n" s="0">
-        <v>61.550000</v>
+        <v>28.850000</v>
       </c>
       <c r="K3" t="n" s="0">
-        <v>0.390000</v>
+        <v>0.059000</v>
       </c>
       <c r="L3" t="n" s="0">
-        <v>0.019000</v>
+        <v>0.015000</v>
       </c>
       <c r="M3" t="n" s="0">
-        <v>5.900000</v>
+        <v>0.830000</v>
       </c>
       <c r="N3" t="n" s="0">
-        <v>0.330000</v>
+        <v>0.046000</v>
       </c>
       <c r="O3" t="n" s="0">
         <v/>
       </c>
       <c r="P3" t="s" s="0">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="n" s="0">
-        <v>5.190000</v>
+        <v>2.240000</v>
       </c>
       <c r="R3" t="n" s="0">
-        <v>69.710000</v>
+        <v>83.710000</v>
       </c>
       <c r="S3" t="n" s="0">
-        <v>18.420000</v>
+        <v>9.290000</v>
       </c>
       <c r="T3" t="n" s="0">
-        <v>6.680000</v>
+        <v>4.320000</v>
       </c>
       <c r="U3" t="n" s="0">
-        <v>18.160000</v>
+        <v>5.740000</v>
       </c>
       <c r="V3" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.680000</v>
       </c>
       <c r="W3" t="n" s="0">
-        <v>11.680000</v>
+        <v>7.000000</v>
       </c>
       <c r="X3" t="n" s="0">
-        <v>36.580000</v>
+        <v>15.030000</v>
       </c>
       <c r="Y3" t="n" s="0">
-        <v>61.640000</v>
+        <v>29.460000</v>
       </c>
       <c r="Z3" t="n" s="0">
-        <v>0.390000</v>
+        <v>0.059000</v>
       </c>
       <c r="AA3" t="n" s="0">
-        <v>0.019000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB3" t="n" s="0">
-        <v>5.900000</v>
+        <v>0.830000</v>
       </c>
       <c r="AC3" t="n" s="0">
-        <v>0.330000</v>
+        <v>0.046000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B4" t="n" s="0">
-        <v>5.310000</v>
+        <v>5.230000</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>78.870000</v>
+        <v>69.680000</v>
       </c>
       <c r="D4" t="n" s="0">
-        <v>10.350000</v>
+        <v>18.450000</v>
       </c>
       <c r="E4" t="n" s="0">
-        <v>4.910000</v>
+        <v>6.650000</v>
       </c>
       <c r="F4" t="n" s="0">
-        <v>11.470000</v>
+        <v>18.290000</v>
       </c>
       <c r="G4" t="n" s="0">
-        <v>3.350000</v>
+        <v>5.000000</v>
       </c>
       <c r="H4" t="n" s="0">
-        <v>8.260000</v>
+        <v>11.650000</v>
       </c>
       <c r="I4" t="n" s="0">
-        <v>21.820000</v>
+        <v>36.740000</v>
       </c>
       <c r="J4" t="n" s="0">
-        <v>37.210000</v>
+        <v>61.550000</v>
       </c>
       <c r="K4" t="n" s="0">
-        <v>2.330000</v>
+        <v>0.390000</v>
       </c>
       <c r="L4" t="n" s="0">
-        <v>0.038000</v>
+        <v>0.019000</v>
       </c>
       <c r="M4" t="n" s="0">
-        <v>384.740000</v>
+        <v>5.900000</v>
       </c>
       <c r="N4" t="n" s="0">
-        <v>21.370000</v>
+        <v>0.330000</v>
       </c>
       <c r="O4" t="n" s="0">
         <v/>
       </c>
       <c r="P4" t="s" s="0">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="Q4" t="n" s="0">
-        <v>5.320000</v>
+        <v>5.190000</v>
       </c>
       <c r="R4" t="n" s="0">
-        <v>78.850000</v>
+        <v>69.710000</v>
       </c>
       <c r="S4" t="n" s="0">
-        <v>10.360000</v>
+        <v>18.420000</v>
       </c>
       <c r="T4" t="n" s="0">
-        <v>4.920000</v>
+        <v>6.680000</v>
       </c>
       <c r="U4" t="n" s="0">
-        <v>11.480000</v>
+        <v>18.160000</v>
       </c>
       <c r="V4" t="n" s="0">
-        <v>3.360000</v>
+        <v>5.000000</v>
       </c>
       <c r="W4" t="n" s="0">
-        <v>8.270000</v>
+        <v>11.680000</v>
       </c>
       <c r="X4" t="n" s="0">
-        <v>21.830000</v>
+        <v>36.580000</v>
       </c>
       <c r="Y4" t="n" s="0">
-        <v>37.280000</v>
+        <v>61.640000</v>
       </c>
       <c r="Z4" t="n" s="0">
-        <v>2.330000</v>
+        <v>0.390000</v>
       </c>
       <c r="AA4" t="n" s="0">
-        <v>0.038000</v>
+        <v>0.019000</v>
       </c>
       <c r="AB4" t="n" s="0">
-        <v>384.740000</v>
+        <v>5.900000</v>
       </c>
       <c r="AC4" t="n" s="0">
-        <v>21.370000</v>
+        <v>0.330000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B5" t="n" s="0">
-        <v>5.870000</v>
+        <v>5.310000</v>
       </c>
       <c r="C5" t="n" s="0">
-        <v>71.270000</v>
+        <v>78.870000</v>
       </c>
       <c r="D5" t="n" s="0">
-        <v>24.470000</v>
+        <v>10.350000</v>
       </c>
       <c r="E5" t="n" s="0">
-        <v>7.130000</v>
+        <v>4.910000</v>
       </c>
       <c r="F5" t="n" s="0">
-        <v>20.440000</v>
+        <v>11.470000</v>
       </c>
       <c r="G5" t="n" s="0">
-        <v>4.560000</v>
+        <v>3.350000</v>
       </c>
       <c r="H5" t="n" s="0">
-        <v>11.690000</v>
+        <v>8.260000</v>
       </c>
       <c r="I5" t="n" s="0">
-        <v>44.910000</v>
+        <v>21.820000</v>
       </c>
       <c r="J5" t="n" s="0">
-        <v>65.190000</v>
+        <v>37.210000</v>
       </c>
       <c r="K5" t="n" s="0">
-        <v>0.110000</v>
+        <v>2.330000</v>
       </c>
       <c r="L5" t="n" s="0">
-        <v>0.003000</v>
+        <v>0.038000</v>
       </c>
       <c r="M5" t="n" s="0">
-        <v>1.960000</v>
+        <v>384.740000</v>
       </c>
       <c r="N5" t="n" s="0">
-        <v>0.110000</v>
+        <v>21.370000</v>
       </c>
       <c r="O5" t="n" s="0">
         <v/>
       </c>
       <c r="P5" t="s" s="0">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="n" s="0">
-        <v>5.890000</v>
+        <v>5.320000</v>
       </c>
       <c r="R5" t="n" s="0">
-        <v>70.850000</v>
+        <v>78.850000</v>
       </c>
       <c r="S5" t="n" s="0">
-        <v>24.620000</v>
+        <v>10.360000</v>
       </c>
       <c r="T5" t="n" s="0">
-        <v>7.160000</v>
+        <v>4.920000</v>
       </c>
       <c r="U5" t="n" s="0">
-        <v>20.490000</v>
+        <v>11.480000</v>
       </c>
       <c r="V5" t="n" s="0">
-        <v>4.550000</v>
+        <v>3.360000</v>
       </c>
       <c r="W5" t="n" s="0">
-        <v>11.710000</v>
+        <v>8.270000</v>
       </c>
       <c r="X5" t="n" s="0">
-        <v>45.110000</v>
+        <v>21.830000</v>
       </c>
       <c r="Y5" t="n" s="0">
-        <v>65.390000</v>
+        <v>37.280000</v>
       </c>
       <c r="Z5" t="n" s="0">
-        <v>0.110000</v>
+        <v>2.330000</v>
       </c>
       <c r="AA5" t="n" s="0">
-        <v>0.003000</v>
+        <v>0.038000</v>
       </c>
       <c r="AB5" t="n" s="0">
-        <v>1.960000</v>
+        <v>384.740000</v>
       </c>
       <c r="AC5" t="n" s="0">
-        <v>0.110000</v>
+        <v>21.370000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B6" t="n" s="0">
-        <v>4.190000</v>
+        <v>5.870000</v>
       </c>
       <c r="C6" t="n" s="0">
-        <v>72.120000</v>
+        <v>71.270000</v>
       </c>
       <c r="D6" t="n" s="0">
-        <v>19.930000</v>
+        <v>24.470000</v>
       </c>
       <c r="E6" t="n" s="0">
-        <v>8.910000</v>
+        <v>7.130000</v>
       </c>
       <c r="F6" t="n" s="0">
-        <v>18.600000</v>
+        <v>20.440000</v>
       </c>
       <c r="G6" t="n" s="0">
-        <v>4.510000</v>
+        <v>4.560000</v>
       </c>
       <c r="H6" t="n" s="0">
-        <v>13.420000</v>
+        <v>11.690000</v>
       </c>
       <c r="I6" t="n" s="0">
-        <v>38.530000</v>
+        <v>44.910000</v>
       </c>
       <c r="J6" t="n" s="0">
-        <v>73.860000</v>
+        <v>65.190000</v>
       </c>
       <c r="K6" t="n" s="0">
-        <v>0.700000</v>
+        <v>0.110000</v>
       </c>
       <c r="L6" t="n" s="0">
-        <v>0.070000</v>
+        <v>0.003000</v>
       </c>
       <c r="M6" t="n" s="0">
-        <v>143.600000</v>
+        <v>1.960000</v>
       </c>
       <c r="N6" t="n" s="0">
-        <v>7.980000</v>
+        <v>0.110000</v>
       </c>
       <c r="O6" t="n" s="0">
         <v/>
       </c>
       <c r="P6" t="s" s="0">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="n" s="0">
-        <v>4.160000</v>
+        <v>5.890000</v>
       </c>
       <c r="R6" t="n" s="0">
-        <v>72.120000</v>
+        <v>70.850000</v>
       </c>
       <c r="S6" t="n" s="0">
-        <v>19.880000</v>
+        <v>24.620000</v>
       </c>
       <c r="T6" t="n" s="0">
-        <v>8.930000</v>
+        <v>7.160000</v>
       </c>
       <c r="U6" t="n" s="0">
-        <v>18.510000</v>
+        <v>20.490000</v>
       </c>
       <c r="V6" t="n" s="0">
-        <v>4.510000</v>
+        <v>4.550000</v>
       </c>
       <c r="W6" t="n" s="0">
-        <v>13.440000</v>
+        <v>11.710000</v>
       </c>
       <c r="X6" t="n" s="0">
-        <v>38.400000</v>
+        <v>45.110000</v>
       </c>
       <c r="Y6" t="n" s="0">
-        <v>73.950000</v>
+        <v>65.390000</v>
       </c>
       <c r="Z6" t="n" s="0">
-        <v>0.700000</v>
+        <v>0.110000</v>
       </c>
       <c r="AA6" t="n" s="0">
-        <v>0.070000</v>
+        <v>0.003000</v>
       </c>
       <c r="AB6" t="n" s="0">
-        <v>143.600000</v>
+        <v>1.960000</v>
       </c>
       <c r="AC6" t="n" s="0">
-        <v>7.980000</v>
+        <v>0.110000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B7" t="n" s="0">
-        <v>5.100000</v>
+        <v>4.190000</v>
       </c>
       <c r="C7" t="n" s="0">
-        <v>69.710000</v>
+        <v>72.120000</v>
       </c>
       <c r="D7" t="n" s="0">
-        <v>22.520000</v>
+        <v>19.930000</v>
       </c>
       <c r="E7" t="n" s="0">
-        <v>9.520000</v>
+        <v>8.910000</v>
       </c>
       <c r="F7" t="n" s="0">
-        <v>17.900000</v>
+        <v>18.600000</v>
       </c>
       <c r="G7" t="n" s="0">
-        <v>5.570000</v>
+        <v>4.510000</v>
       </c>
       <c r="H7" t="n" s="0">
-        <v>15.100000</v>
+        <v>13.420000</v>
       </c>
       <c r="I7" t="n" s="0">
-        <v>40.430000</v>
+        <v>38.530000</v>
       </c>
       <c r="J7" t="n" s="0">
-        <v>84.120000</v>
+        <v>73.860000</v>
       </c>
       <c r="K7" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.700000</v>
       </c>
       <c r="L7" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.070000</v>
       </c>
       <c r="M7" t="n" s="0">
-        <v>0.000000</v>
+        <v>143.600000</v>
       </c>
       <c r="N7" t="n" s="0">
-        <v>0.000000</v>
+        <v>7.980000</v>
       </c>
       <c r="O7" t="n" s="0">
         <v/>
       </c>
       <c r="P7" t="s" s="0">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n" s="0">
-        <v>5.240000</v>
+        <v>4.160000</v>
       </c>
       <c r="R7" t="n" s="0">
-        <v>69.520000</v>
+        <v>72.120000</v>
       </c>
       <c r="S7" t="n" s="0">
-        <v>22.950000</v>
+        <v>19.880000</v>
       </c>
       <c r="T7" t="n" s="0">
-        <v>9.670000</v>
+        <v>8.930000</v>
       </c>
       <c r="U7" t="n" s="0">
-        <v>18.430000</v>
+        <v>18.510000</v>
       </c>
       <c r="V7" t="n" s="0">
-        <v>5.570000</v>
+        <v>4.510000</v>
       </c>
       <c r="W7" t="n" s="0">
-        <v>15.240000</v>
+        <v>13.440000</v>
       </c>
       <c r="X7" t="n" s="0">
-        <v>41.380000</v>
+        <v>38.400000</v>
       </c>
       <c r="Y7" t="n" s="0">
-        <v>85.370000</v>
+        <v>73.950000</v>
       </c>
       <c r="Z7" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.700000</v>
       </c>
       <c r="AA7" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.070000</v>
       </c>
       <c r="AB7" t="n" s="0">
-        <v>0.000000</v>
+        <v>143.600000</v>
       </c>
       <c r="AC7" t="n" s="0">
-        <v>0.000000</v>
+        <v>7.980000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="B8" t="n" s="0">
-        <v>7.670000</v>
+        <v>5.100000</v>
       </c>
       <c r="C8" t="n" s="0">
-        <v>65.830000</v>
+        <v>69.710000</v>
       </c>
       <c r="D8" t="n" s="0">
-        <v>22.500000</v>
+        <v>22.520000</v>
       </c>
       <c r="E8" t="n" s="0">
-        <v>7.000000</v>
+        <v>9.520000</v>
       </c>
       <c r="F8" t="n" s="0">
-        <v>21.670000</v>
+        <v>17.900000</v>
       </c>
       <c r="G8" t="n" s="0">
-        <v>6.670000</v>
+        <v>5.570000</v>
       </c>
       <c r="H8" t="n" s="0">
-        <v>13.670000</v>
+        <v>15.100000</v>
       </c>
       <c r="I8" t="n" s="0">
-        <v>44.170000</v>
+        <v>40.430000</v>
       </c>
       <c r="J8" t="n" s="0">
-        <v>74.520000</v>
+        <v>84.120000</v>
       </c>
       <c r="K8" t="n" s="0">
         <v>0.000000</v>
@@ -1261,34 +1348,34 @@
         <v/>
       </c>
       <c r="P8" t="s" s="0">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="Q8" t="n" s="0">
-        <v>7.330000</v>
+        <v>5.240000</v>
       </c>
       <c r="R8" t="n" s="0">
-        <v>66.330000</v>
+        <v>69.520000</v>
       </c>
       <c r="S8" t="n" s="0">
-        <v>22.000000</v>
+        <v>22.950000</v>
       </c>
       <c r="T8" t="n" s="0">
-        <v>7.000000</v>
+        <v>9.670000</v>
       </c>
       <c r="U8" t="n" s="0">
-        <v>20.500000</v>
+        <v>18.430000</v>
       </c>
       <c r="V8" t="n" s="0">
-        <v>6.170000</v>
+        <v>5.570000</v>
       </c>
       <c r="W8" t="n" s="0">
-        <v>13.170000</v>
+        <v>15.240000</v>
       </c>
       <c r="X8" t="n" s="0">
-        <v>42.500000</v>
+        <v>41.380000</v>
       </c>
       <c r="Y8" t="n" s="0">
-        <v>71.230000</v>
+        <v>85.370000</v>
       </c>
       <c r="Z8" t="n" s="0">
         <v>0.000000</v>
@@ -1305,34 +1392,34 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="B9" t="n" s="0">
-        <v>4.330000</v>
+        <v>7.670000</v>
       </c>
       <c r="C9" t="n" s="0">
-        <v>77.330000</v>
+        <v>65.830000</v>
       </c>
       <c r="D9" t="n" s="0">
-        <v>15.470000</v>
+        <v>22.500000</v>
       </c>
       <c r="E9" t="n" s="0">
-        <v>6.330000</v>
+        <v>7.000000</v>
       </c>
       <c r="F9" t="n" s="0">
-        <v>15.530000</v>
+        <v>21.670000</v>
       </c>
       <c r="G9" t="n" s="0">
-        <v>4.270000</v>
+        <v>6.670000</v>
       </c>
       <c r="H9" t="n" s="0">
-        <v>10.600000</v>
+        <v>13.670000</v>
       </c>
       <c r="I9" t="n" s="0">
-        <v>31.000000</v>
+        <v>44.170000</v>
       </c>
       <c r="J9" t="n" s="0">
-        <v>54.270000</v>
+        <v>74.520000</v>
       </c>
       <c r="K9" t="n" s="0">
         <v>0.000000</v>
@@ -1350,34 +1437,34 @@
         <v/>
       </c>
       <c r="P9" t="s" s="0">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="n" s="0">
-        <v>4.270000</v>
+        <v>7.330000</v>
       </c>
       <c r="R9" t="n" s="0">
-        <v>77.400000</v>
+        <v>66.330000</v>
       </c>
       <c r="S9" t="n" s="0">
-        <v>15.330000</v>
+        <v>22.000000</v>
       </c>
       <c r="T9" t="n" s="0">
-        <v>6.330000</v>
+        <v>7.000000</v>
       </c>
       <c r="U9" t="n" s="0">
-        <v>15.400000</v>
+        <v>20.500000</v>
       </c>
       <c r="V9" t="n" s="0">
-        <v>4.270000</v>
+        <v>6.170000</v>
       </c>
       <c r="W9" t="n" s="0">
-        <v>10.600000</v>
+        <v>13.170000</v>
       </c>
       <c r="X9" t="n" s="0">
-        <v>30.730000</v>
+        <v>42.500000</v>
       </c>
       <c r="Y9" t="n" s="0">
-        <v>54.110000</v>
+        <v>71.230000</v>
       </c>
       <c r="Z9" t="n" s="0">
         <v>0.000000</v>
@@ -1394,185 +1481,185 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="B10" t="n" s="0">
-        <v>9.600000</v>
+        <v>4.330000</v>
       </c>
       <c r="C10" t="n" s="0">
-        <v>67.710000</v>
+        <v>77.330000</v>
       </c>
       <c r="D10" t="n" s="0">
-        <v>34.380000</v>
+        <v>15.470000</v>
       </c>
       <c r="E10" t="n" s="0">
-        <v>12.520000</v>
+        <v>6.330000</v>
       </c>
       <c r="F10" t="n" s="0">
-        <v>31.640000</v>
+        <v>15.530000</v>
       </c>
       <c r="G10" t="n" s="0">
-        <v>5.400000</v>
+        <v>4.270000</v>
       </c>
       <c r="H10" t="n" s="0">
-        <v>17.930000</v>
+        <v>10.600000</v>
       </c>
       <c r="I10" t="n" s="0">
-        <v>66.020000</v>
+        <v>31.000000</v>
       </c>
       <c r="J10" t="n" s="0">
-        <v>111.880000</v>
+        <v>54.270000</v>
       </c>
       <c r="K10" t="n" s="0">
-        <v>0.690000</v>
+        <v>0.000000</v>
       </c>
       <c r="L10" t="n" s="0">
-        <v>0.013000</v>
+        <v>0.000000</v>
       </c>
       <c r="M10" t="n" s="0">
-        <v>647.940000</v>
+        <v>0.000000</v>
       </c>
       <c r="N10" t="n" s="0">
-        <v>36.000000</v>
+        <v>0.000000</v>
       </c>
       <c r="O10" t="n" s="0">
         <v/>
       </c>
       <c r="P10" t="s" s="0">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="n" s="0">
-        <v>9.600000</v>
+        <v>4.270000</v>
       </c>
       <c r="R10" t="n" s="0">
-        <v>67.710000</v>
+        <v>77.400000</v>
       </c>
       <c r="S10" t="n" s="0">
-        <v>34.310000</v>
+        <v>15.330000</v>
       </c>
       <c r="T10" t="n" s="0">
-        <v>12.550000</v>
+        <v>6.330000</v>
       </c>
       <c r="U10" t="n" s="0">
-        <v>31.570000</v>
+        <v>15.400000</v>
       </c>
       <c r="V10" t="n" s="0">
-        <v>5.380000</v>
+        <v>4.270000</v>
       </c>
       <c r="W10" t="n" s="0">
-        <v>17.930000</v>
+        <v>10.600000</v>
       </c>
       <c r="X10" t="n" s="0">
-        <v>65.880000</v>
+        <v>30.730000</v>
       </c>
       <c r="Y10" t="n" s="0">
-        <v>111.810000</v>
+        <v>54.110000</v>
       </c>
       <c r="Z10" t="n" s="0">
-        <v>0.690000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA10" t="n" s="0">
-        <v>0.013000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB10" t="n" s="0">
-        <v>647.940000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC10" t="n" s="0">
-        <v>36.000000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="B11" t="n" s="0">
-        <v>3.110000</v>
+        <v>9.600000</v>
       </c>
       <c r="C11" t="n" s="0">
-        <v>77.560000</v>
+        <v>67.710000</v>
       </c>
       <c r="D11" t="n" s="0">
-        <v>12.110000</v>
+        <v>34.380000</v>
       </c>
       <c r="E11" t="n" s="0">
-        <v>5.560000</v>
+        <v>12.520000</v>
       </c>
       <c r="F11" t="n" s="0">
-        <v>10.440000</v>
+        <v>31.640000</v>
       </c>
       <c r="G11" t="n" s="0">
-        <v>3.000000</v>
+        <v>5.400000</v>
       </c>
       <c r="H11" t="n" s="0">
-        <v>8.560000</v>
+        <v>17.930000</v>
       </c>
       <c r="I11" t="n" s="0">
-        <v>22.560000</v>
+        <v>66.020000</v>
       </c>
       <c r="J11" t="n" s="0">
-        <v>40.270000</v>
+        <v>111.880000</v>
       </c>
       <c r="K11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.690000</v>
       </c>
       <c r="L11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.013000</v>
       </c>
       <c r="M11" t="n" s="0">
-        <v>0.000000</v>
+        <v>647.940000</v>
       </c>
       <c r="N11" t="n" s="0">
-        <v>0.000000</v>
+        <v>36.000000</v>
       </c>
       <c r="O11" t="n" s="0">
         <v/>
       </c>
       <c r="P11" t="s" s="0">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="Q11" t="n" s="0">
-        <v>4.330000</v>
+        <v>9.600000</v>
       </c>
       <c r="R11" t="n" s="0">
-        <v>76.780000</v>
+        <v>67.710000</v>
       </c>
       <c r="S11" t="n" s="0">
-        <v>13.670000</v>
+        <v>34.310000</v>
       </c>
       <c r="T11" t="n" s="0">
-        <v>5.890000</v>
+        <v>12.550000</v>
       </c>
       <c r="U11" t="n" s="0">
-        <v>14.330000</v>
+        <v>31.570000</v>
       </c>
       <c r="V11" t="n" s="0">
-        <v>3.110000</v>
+        <v>5.380000</v>
       </c>
       <c r="W11" t="n" s="0">
-        <v>9.000000</v>
+        <v>17.930000</v>
       </c>
       <c r="X11" t="n" s="0">
-        <v>28.000000</v>
+        <v>65.880000</v>
       </c>
       <c r="Y11" t="n" s="0">
-        <v>45.180000</v>
+        <v>111.810000</v>
       </c>
       <c r="Z11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.690000</v>
       </c>
       <c r="AA11" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.013000</v>
       </c>
       <c r="AB11" t="n" s="0">
-        <v>0.000000</v>
+        <v>647.940000</v>
       </c>
       <c r="AC11" t="n" s="0">
-        <v>0.000000</v>
+        <v>36.000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B12" t="n" s="0">
         <v>3.110000</v>
@@ -1617,34 +1704,34 @@
         <v/>
       </c>
       <c r="P12" t="s" s="0">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="Q12" t="n" s="0">
-        <v>5.000000</v>
+        <v>4.330000</v>
       </c>
       <c r="R12" t="n" s="0">
-        <v>76.560000</v>
+        <v>76.780000</v>
       </c>
       <c r="S12" t="n" s="0">
-        <v>14.670000</v>
+        <v>13.670000</v>
       </c>
       <c r="T12" t="n" s="0">
-        <v>6.220000</v>
+        <v>5.890000</v>
       </c>
       <c r="U12" t="n" s="0">
-        <v>16.890000</v>
+        <v>14.330000</v>
       </c>
       <c r="V12" t="n" s="0">
         <v>3.110000</v>
       </c>
       <c r="W12" t="n" s="0">
-        <v>9.330000</v>
+        <v>9.000000</v>
       </c>
       <c r="X12" t="n" s="0">
-        <v>31.560000</v>
+        <v>28.000000</v>
       </c>
       <c r="Y12" t="n" s="0">
-        <v>48.590000</v>
+        <v>45.180000</v>
       </c>
       <c r="Z12" t="n" s="0">
         <v>0.000000</v>
@@ -1661,34 +1748,34 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="B13" t="n" s="0">
-        <v>4.380000</v>
+        <v>3.110000</v>
       </c>
       <c r="C13" t="n" s="0">
-        <v>78.060000</v>
+        <v>77.560000</v>
       </c>
       <c r="D13" t="n" s="0">
-        <v>15.190000</v>
+        <v>12.110000</v>
       </c>
       <c r="E13" t="n" s="0">
-        <v>6.190000</v>
+        <v>5.560000</v>
       </c>
       <c r="F13" t="n" s="0">
-        <v>16.120000</v>
+        <v>10.440000</v>
       </c>
       <c r="G13" t="n" s="0">
-        <v>4.120000</v>
+        <v>3.000000</v>
       </c>
       <c r="H13" t="n" s="0">
-        <v>10.310000</v>
+        <v>8.560000</v>
       </c>
       <c r="I13" t="n" s="0">
-        <v>31.310000</v>
+        <v>22.560000</v>
       </c>
       <c r="J13" t="n" s="0">
-        <v>53.560000</v>
+        <v>40.270000</v>
       </c>
       <c r="K13" t="n" s="0">
         <v>0.000000</v>
@@ -1706,34 +1793,34 @@
         <v/>
       </c>
       <c r="P13" t="s" s="0">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="n" s="0">
-        <v>4.190000</v>
+        <v>5.000000</v>
       </c>
       <c r="R13" t="n" s="0">
-        <v>78.620000</v>
+        <v>76.560000</v>
       </c>
       <c r="S13" t="n" s="0">
-        <v>14.690000</v>
+        <v>14.670000</v>
       </c>
       <c r="T13" t="n" s="0">
-        <v>6.060000</v>
+        <v>6.220000</v>
       </c>
       <c r="U13" t="n" s="0">
-        <v>15.440000</v>
+        <v>16.890000</v>
       </c>
       <c r="V13" t="n" s="0">
-        <v>4.120000</v>
+        <v>3.110000</v>
       </c>
       <c r="W13" t="n" s="0">
-        <v>10.190000</v>
+        <v>9.330000</v>
       </c>
       <c r="X13" t="n" s="0">
-        <v>30.120000</v>
+        <v>31.560000</v>
       </c>
       <c r="Y13" t="n" s="0">
-        <v>52.360000</v>
+        <v>48.590000</v>
       </c>
       <c r="Z13" t="n" s="0">
         <v>0.000000</v>
@@ -1750,1013 +1837,1013 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B14" t="n" s="0">
-        <v>2.660000</v>
+        <v>4.380000</v>
       </c>
       <c r="C14" t="n" s="0">
-        <v>82.900000</v>
+        <v>78.060000</v>
       </c>
       <c r="D14" t="n" s="0">
-        <v>7.020000</v>
+        <v>15.190000</v>
       </c>
       <c r="E14" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.190000</v>
       </c>
       <c r="F14" t="n" s="0">
-        <v>6.800000</v>
+        <v>16.120000</v>
       </c>
       <c r="G14" t="n" s="0">
-        <v>2.900000</v>
+        <v>4.120000</v>
       </c>
       <c r="H14" t="n" s="0">
-        <v>6.900000</v>
+        <v>10.310000</v>
       </c>
       <c r="I14" t="n" s="0">
-        <v>13.830000</v>
+        <v>31.310000</v>
       </c>
       <c r="J14" t="n" s="0">
-        <v>28.120000</v>
+        <v>53.560000</v>
       </c>
       <c r="K14" t="n" s="0">
-        <v>0.560000</v>
+        <v>0.000000</v>
       </c>
       <c r="L14" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.000000</v>
       </c>
       <c r="M14" t="n" s="0">
-        <v>6.300000</v>
+        <v>0.000000</v>
       </c>
       <c r="N14" t="n" s="0">
-        <v>0.350000</v>
+        <v>0.000000</v>
       </c>
       <c r="O14" t="n" s="0">
         <v/>
       </c>
       <c r="P14" t="s" s="0">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="Q14" t="n" s="0">
-        <v>2.630000</v>
+        <v>4.190000</v>
       </c>
       <c r="R14" t="n" s="0">
-        <v>82.950000</v>
+        <v>78.620000</v>
       </c>
       <c r="S14" t="n" s="0">
-        <v>7.020000</v>
+        <v>14.690000</v>
       </c>
       <c r="T14" t="n" s="0">
-        <v>4.020000</v>
+        <v>6.060000</v>
       </c>
       <c r="U14" t="n" s="0">
-        <v>6.710000</v>
+        <v>15.440000</v>
       </c>
       <c r="V14" t="n" s="0">
-        <v>2.900000</v>
+        <v>4.120000</v>
       </c>
       <c r="W14" t="n" s="0">
-        <v>6.930000</v>
+        <v>10.190000</v>
       </c>
       <c r="X14" t="n" s="0">
-        <v>13.730000</v>
+        <v>30.120000</v>
       </c>
       <c r="Y14" t="n" s="0">
-        <v>28.180000</v>
+        <v>52.360000</v>
       </c>
       <c r="Z14" t="n" s="0">
-        <v>0.560000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA14" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB14" t="n" s="0">
-        <v>6.300000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC14" t="n" s="0">
-        <v>0.350000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="B15" t="n" s="0">
-        <v>1.850000</v>
+        <v>2.660000</v>
       </c>
       <c r="C15" t="n" s="0">
-        <v>90.700000</v>
+        <v>82.900000</v>
       </c>
       <c r="D15" t="n" s="0">
-        <v>3.760000</v>
+        <v>7.020000</v>
       </c>
       <c r="E15" t="n" s="0">
-        <v>3.120000</v>
+        <v>4.000000</v>
       </c>
       <c r="F15" t="n" s="0">
-        <v>4.000000</v>
+        <v>6.800000</v>
       </c>
       <c r="G15" t="n" s="0">
-        <v>1.910000</v>
+        <v>2.900000</v>
       </c>
       <c r="H15" t="n" s="0">
-        <v>5.030000</v>
+        <v>6.900000</v>
       </c>
       <c r="I15" t="n" s="0">
-        <v>7.760000</v>
+        <v>13.830000</v>
       </c>
       <c r="J15" t="n" s="0">
-        <v>17.510000</v>
+        <v>28.120000</v>
       </c>
       <c r="K15" t="n" s="0">
-        <v>0.940000</v>
+        <v>0.560000</v>
       </c>
       <c r="L15" t="n" s="0">
-        <v>0.092000</v>
+        <v>0.120000</v>
       </c>
       <c r="M15" t="n" s="0">
-        <v>17.550000</v>
+        <v>6.300000</v>
       </c>
       <c r="N15" t="n" s="0">
-        <v>0.980000</v>
+        <v>0.350000</v>
       </c>
       <c r="O15" t="n" s="0">
         <v/>
       </c>
       <c r="P15" t="s" s="0">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="Q15" t="n" s="0">
-        <v>1.790000</v>
+        <v>2.630000</v>
       </c>
       <c r="R15" t="n" s="0">
-        <v>90.700000</v>
+        <v>82.950000</v>
       </c>
       <c r="S15" t="n" s="0">
-        <v>3.640000</v>
+        <v>7.020000</v>
       </c>
       <c r="T15" t="n" s="0">
-        <v>3.120000</v>
+        <v>4.020000</v>
       </c>
       <c r="U15" t="n" s="0">
-        <v>3.820000</v>
+        <v>6.710000</v>
       </c>
       <c r="V15" t="n" s="0">
-        <v>1.820000</v>
+        <v>2.900000</v>
       </c>
       <c r="W15" t="n" s="0">
-        <v>4.940000</v>
+        <v>6.930000</v>
       </c>
       <c r="X15" t="n" s="0">
-        <v>7.450000</v>
+        <v>13.730000</v>
       </c>
       <c r="Y15" t="n" s="0">
-        <v>16.750000</v>
+        <v>28.180000</v>
       </c>
       <c r="Z15" t="n" s="0">
-        <v>0.940000</v>
+        <v>0.560000</v>
       </c>
       <c r="AA15" t="n" s="0">
-        <v>0.092000</v>
+        <v>0.120000</v>
       </c>
       <c r="AB15" t="n" s="0">
-        <v>17.550000</v>
+        <v>6.300000</v>
       </c>
       <c r="AC15" t="n" s="0">
-        <v>0.980000</v>
+        <v>0.350000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="B16" t="n" s="0">
-        <v>2.860000</v>
+        <v>1.850000</v>
       </c>
       <c r="C16" t="n" s="0">
-        <v>81.180000</v>
+        <v>90.700000</v>
       </c>
       <c r="D16" t="n" s="0">
-        <v>10.000000</v>
+        <v>3.760000</v>
       </c>
       <c r="E16" t="n" s="0">
-        <v>4.360000</v>
+        <v>3.120000</v>
       </c>
       <c r="F16" t="n" s="0">
-        <v>7.590000</v>
+        <v>4.000000</v>
       </c>
       <c r="G16" t="n" s="0">
-        <v>2.950000</v>
+        <v>1.910000</v>
       </c>
       <c r="H16" t="n" s="0">
-        <v>7.320000</v>
+        <v>5.030000</v>
       </c>
       <c r="I16" t="n" s="0">
-        <v>17.590000</v>
+        <v>7.760000</v>
       </c>
       <c r="J16" t="n" s="0">
-        <v>31.690000</v>
+        <v>17.510000</v>
       </c>
       <c r="K16" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.940000</v>
       </c>
       <c r="L16" t="n" s="0">
-        <v>0.015000</v>
+        <v>0.092000</v>
       </c>
       <c r="M16" t="n" s="0">
-        <v>2.160000</v>
+        <v>17.550000</v>
       </c>
       <c r="N16" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.980000</v>
       </c>
       <c r="O16" t="n" s="0">
         <v/>
       </c>
       <c r="P16" t="s" s="0">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="Q16" t="n" s="0">
-        <v>2.860000</v>
+        <v>1.790000</v>
       </c>
       <c r="R16" t="n" s="0">
-        <v>81.140000</v>
+        <v>90.700000</v>
       </c>
       <c r="S16" t="n" s="0">
-        <v>10.000000</v>
+        <v>3.640000</v>
       </c>
       <c r="T16" t="n" s="0">
-        <v>4.410000</v>
+        <v>3.120000</v>
       </c>
       <c r="U16" t="n" s="0">
-        <v>7.550000</v>
+        <v>3.820000</v>
       </c>
       <c r="V16" t="n" s="0">
-        <v>2.950000</v>
+        <v>1.820000</v>
       </c>
       <c r="W16" t="n" s="0">
-        <v>7.360000</v>
+        <v>4.940000</v>
       </c>
       <c r="X16" t="n" s="0">
+        <v>7.450000</v>
+      </c>
+      <c r="Y16" t="n" s="0">
+        <v>16.750000</v>
+      </c>
+      <c r="Z16" t="n" s="0">
+        <v>0.940000</v>
+      </c>
+      <c r="AA16" t="n" s="0">
+        <v>0.092000</v>
+      </c>
+      <c r="AB16" t="n" s="0">
         <v>17.550000</v>
       </c>
-      <c r="Y16" t="n" s="0">
-        <v>31.910000</v>
-      </c>
-      <c r="Z16" t="n" s="0">
-        <v>0.140000</v>
-      </c>
-      <c r="AA16" t="n" s="0">
-        <v>0.015000</v>
-      </c>
-      <c r="AB16" t="n" s="0">
-        <v>2.160000</v>
-      </c>
       <c r="AC16" t="n" s="0">
-        <v>0.120000</v>
+        <v>0.980000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="B17" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.860000</v>
       </c>
       <c r="C17" t="n" s="0">
-        <v>73.000000</v>
+        <v>81.180000</v>
       </c>
       <c r="D17" t="n" s="0">
-        <v>14.440000</v>
+        <v>10.000000</v>
       </c>
       <c r="E17" t="n" s="0">
-        <v>5.780000</v>
+        <v>4.360000</v>
       </c>
       <c r="F17" t="n" s="0">
-        <v>14.780000</v>
+        <v>7.590000</v>
       </c>
       <c r="G17" t="n" s="0">
-        <v>4.110000</v>
+        <v>2.950000</v>
       </c>
       <c r="H17" t="n" s="0">
-        <v>9.890000</v>
+        <v>7.320000</v>
       </c>
       <c r="I17" t="n" s="0">
-        <v>29.220000</v>
+        <v>17.590000</v>
       </c>
       <c r="J17" t="n" s="0">
-        <v>49.970000</v>
+        <v>31.690000</v>
       </c>
       <c r="K17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="L17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.015000</v>
       </c>
       <c r="M17" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.160000</v>
       </c>
       <c r="N17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.120000</v>
       </c>
       <c r="O17" t="n" s="0">
         <v/>
       </c>
       <c r="P17" t="s" s="0">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="Q17" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.860000</v>
       </c>
       <c r="R17" t="n" s="0">
-        <v>72.700000</v>
+        <v>81.140000</v>
       </c>
       <c r="S17" t="n" s="0">
-        <v>13.900000</v>
+        <v>10.000000</v>
       </c>
       <c r="T17" t="n" s="0">
-        <v>5.600000</v>
+        <v>4.410000</v>
       </c>
       <c r="U17" t="n" s="0">
-        <v>14.900000</v>
+        <v>7.550000</v>
       </c>
       <c r="V17" t="n" s="0">
-        <v>4.200000</v>
+        <v>2.950000</v>
       </c>
       <c r="W17" t="n" s="0">
-        <v>9.800000</v>
+        <v>7.360000</v>
       </c>
       <c r="X17" t="n" s="0">
-        <v>28.800000</v>
+        <v>17.550000</v>
       </c>
       <c r="Y17" t="n" s="0">
-        <v>49.160000</v>
+        <v>31.910000</v>
       </c>
       <c r="Z17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.140000</v>
       </c>
       <c r="AA17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.015000</v>
       </c>
       <c r="AB17" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.160000</v>
       </c>
       <c r="AC17" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.120000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="B18" t="n" s="0">
-        <v>1.760000</v>
+        <v>5.000000</v>
       </c>
       <c r="C18" t="n" s="0">
-        <v>90.820000</v>
+        <v>73.000000</v>
       </c>
       <c r="D18" t="n" s="0">
-        <v>3.580000</v>
+        <v>14.440000</v>
       </c>
       <c r="E18" t="n" s="0">
-        <v>3.060000</v>
+        <v>5.780000</v>
       </c>
       <c r="F18" t="n" s="0">
-        <v>3.730000</v>
+        <v>14.780000</v>
       </c>
       <c r="G18" t="n" s="0">
-        <v>1.850000</v>
+        <v>4.110000</v>
       </c>
       <c r="H18" t="n" s="0">
-        <v>4.910000</v>
+        <v>9.890000</v>
       </c>
       <c r="I18" t="n" s="0">
-        <v>7.300000</v>
+        <v>29.220000</v>
       </c>
       <c r="J18" t="n" s="0">
-        <v>16.510000</v>
+        <v>49.970000</v>
       </c>
       <c r="K18" t="n" s="0">
-        <v>0.940000</v>
+        <v>0.000000</v>
       </c>
       <c r="L18" t="n" s="0">
-        <v>0.092000</v>
+        <v>0.000000</v>
       </c>
       <c r="M18" t="n" s="0">
-        <v>17.550000</v>
+        <v>0.000000</v>
       </c>
       <c r="N18" t="n" s="0">
-        <v>0.980000</v>
+        <v>0.000000</v>
       </c>
       <c r="O18" t="n" s="0">
         <v/>
       </c>
       <c r="P18" t="s" s="0">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="Q18" t="n" s="0">
-        <v>1.730000</v>
+        <v>5.000000</v>
       </c>
       <c r="R18" t="n" s="0">
-        <v>90.820000</v>
+        <v>72.700000</v>
       </c>
       <c r="S18" t="n" s="0">
-        <v>3.480000</v>
+        <v>13.900000</v>
       </c>
       <c r="T18" t="n" s="0">
-        <v>3.090000</v>
+        <v>5.600000</v>
       </c>
       <c r="U18" t="n" s="0">
-        <v>3.580000</v>
+        <v>14.900000</v>
       </c>
       <c r="V18" t="n" s="0">
-        <v>1.820000</v>
+        <v>4.200000</v>
       </c>
       <c r="W18" t="n" s="0">
-        <v>4.910000</v>
+        <v>9.800000</v>
       </c>
       <c r="X18" t="n" s="0">
-        <v>7.060000</v>
+        <v>28.800000</v>
       </c>
       <c r="Y18" t="n" s="0">
-        <v>16.330000</v>
+        <v>49.160000</v>
       </c>
       <c r="Z18" t="n" s="0">
-        <v>0.940000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA18" t="n" s="0">
-        <v>0.092000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB18" t="n" s="0">
-        <v>17.550000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC18" t="n" s="0">
-        <v>0.980000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="B19" t="n" s="0">
-        <v>2.390000</v>
+        <v>1.760000</v>
       </c>
       <c r="C19" t="n" s="0">
-        <v>81.000000</v>
+        <v>90.820000</v>
       </c>
       <c r="D19" t="n" s="0">
-        <v>9.500000</v>
+        <v>3.580000</v>
       </c>
       <c r="E19" t="n" s="0">
-        <v>5.640000</v>
+        <v>3.060000</v>
       </c>
       <c r="F19" t="n" s="0">
-        <v>6.640000</v>
+        <v>3.730000</v>
       </c>
       <c r="G19" t="n" s="0">
-        <v>2.710000</v>
+        <v>1.850000</v>
       </c>
       <c r="H19" t="n" s="0">
-        <v>8.360000</v>
+        <v>4.910000</v>
       </c>
       <c r="I19" t="n" s="0">
-        <v>16.140000</v>
+        <v>7.300000</v>
       </c>
       <c r="J19" t="n" s="0">
-        <v>33.640000</v>
+        <v>16.510000</v>
       </c>
       <c r="K19" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.940000</v>
       </c>
       <c r="L19" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.092000</v>
       </c>
       <c r="M19" t="n" s="0">
-        <v>0.330000</v>
+        <v>17.550000</v>
       </c>
       <c r="N19" t="n" s="0">
-        <v>0.018000</v>
+        <v>0.980000</v>
       </c>
       <c r="O19" t="n" s="0">
         <v/>
       </c>
       <c r="P19" t="s" s="0">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="n" s="0">
-        <v>2.390000</v>
+        <v>1.730000</v>
       </c>
       <c r="R19" t="n" s="0">
-        <v>81.140000</v>
+        <v>90.820000</v>
       </c>
       <c r="S19" t="n" s="0">
-        <v>9.390000</v>
+        <v>3.480000</v>
       </c>
       <c r="T19" t="n" s="0">
-        <v>5.680000</v>
+        <v>3.090000</v>
       </c>
       <c r="U19" t="n" s="0">
-        <v>6.460000</v>
+        <v>3.580000</v>
       </c>
       <c r="V19" t="n" s="0">
-        <v>2.610000</v>
+        <v>1.820000</v>
       </c>
       <c r="W19" t="n" s="0">
-        <v>8.290000</v>
+        <v>4.910000</v>
       </c>
       <c r="X19" t="n" s="0">
-        <v>15.860000</v>
+        <v>7.060000</v>
       </c>
       <c r="Y19" t="n" s="0">
-        <v>33.220000</v>
+        <v>16.330000</v>
       </c>
       <c r="Z19" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.940000</v>
       </c>
       <c r="AA19" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.092000</v>
       </c>
       <c r="AB19" t="n" s="0">
-        <v>0.330000</v>
+        <v>17.550000</v>
       </c>
       <c r="AC19" t="n" s="0">
-        <v>0.018000</v>
+        <v>0.980000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B20" t="n" s="0">
-        <v>9.120000</v>
+        <v>2.390000</v>
       </c>
       <c r="C20" t="n" s="0">
-        <v>67.880000</v>
+        <v>81.000000</v>
       </c>
       <c r="D20" t="n" s="0">
-        <v>33.100000</v>
+        <v>9.500000</v>
       </c>
       <c r="E20" t="n" s="0">
-        <v>11.880000</v>
+        <v>5.640000</v>
       </c>
       <c r="F20" t="n" s="0">
-        <v>30.150000</v>
+        <v>6.640000</v>
       </c>
       <c r="G20" t="n" s="0">
-        <v>5.560000</v>
+        <v>2.710000</v>
       </c>
       <c r="H20" t="n" s="0">
-        <v>17.440000</v>
+        <v>8.360000</v>
       </c>
       <c r="I20" t="n" s="0">
-        <v>63.240000</v>
+        <v>16.140000</v>
       </c>
       <c r="J20" t="n" s="0">
-        <v>107.200000</v>
+        <v>33.640000</v>
       </c>
       <c r="K20" t="n" s="0">
-        <v>0.710000</v>
+        <v>0.071000</v>
       </c>
       <c r="L20" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.071000</v>
       </c>
       <c r="M20" t="n" s="0">
-        <v>577.500000</v>
+        <v>0.330000</v>
       </c>
       <c r="N20" t="n" s="0">
-        <v>32.080000</v>
+        <v>0.018000</v>
       </c>
       <c r="O20" t="n" s="0">
         <v/>
       </c>
       <c r="P20" t="s" s="0">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="Q20" t="n" s="0">
-        <v>9.120000</v>
+        <v>2.390000</v>
       </c>
       <c r="R20" t="n" s="0">
-        <v>67.880000</v>
+        <v>81.140000</v>
       </c>
       <c r="S20" t="n" s="0">
-        <v>33.020000</v>
+        <v>9.390000</v>
       </c>
       <c r="T20" t="n" s="0">
-        <v>11.880000</v>
+        <v>5.680000</v>
       </c>
       <c r="U20" t="n" s="0">
-        <v>30.050000</v>
+        <v>6.460000</v>
       </c>
       <c r="V20" t="n" s="0">
-        <v>5.560000</v>
+        <v>2.610000</v>
       </c>
       <c r="W20" t="n" s="0">
-        <v>17.440000</v>
+        <v>8.290000</v>
       </c>
       <c r="X20" t="n" s="0">
-        <v>63.070000</v>
+        <v>15.860000</v>
       </c>
       <c r="Y20" t="n" s="0">
-        <v>107.180000</v>
+        <v>33.220000</v>
       </c>
       <c r="Z20" t="n" s="0">
-        <v>0.710000</v>
+        <v>0.071000</v>
       </c>
       <c r="AA20" t="n" s="0">
-        <v>0.025000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB20" t="n" s="0">
-        <v>577.500000</v>
+        <v>0.330000</v>
       </c>
       <c r="AC20" t="n" s="0">
-        <v>32.080000</v>
+        <v>0.018000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="B21" t="n" s="0">
-        <v>1.700000</v>
+        <v>9.120000</v>
       </c>
       <c r="C21" t="n" s="0">
-        <v>91.970000</v>
+        <v>67.880000</v>
       </c>
       <c r="D21" t="n" s="0">
-        <v>4.300000</v>
+        <v>33.100000</v>
       </c>
       <c r="E21" t="n" s="0">
-        <v>2.700000</v>
+        <v>11.880000</v>
       </c>
       <c r="F21" t="n" s="0">
-        <v>2.670000</v>
+        <v>30.150000</v>
       </c>
       <c r="G21" t="n" s="0">
-        <v>1.380000</v>
+        <v>5.560000</v>
       </c>
       <c r="H21" t="n" s="0">
-        <v>4.080000</v>
+        <v>17.440000</v>
       </c>
       <c r="I21" t="n" s="0">
-        <v>6.970000</v>
+        <v>63.240000</v>
       </c>
       <c r="J21" t="n" s="0">
-        <v>11.970000</v>
+        <v>107.200000</v>
       </c>
       <c r="K21" t="n" s="0">
-        <v>0.570000</v>
+        <v>0.710000</v>
       </c>
       <c r="L21" t="n" s="0">
-        <v>0.062000</v>
+        <v>0.025000</v>
       </c>
       <c r="M21" t="n" s="0">
-        <v>10.840000</v>
+        <v>577.500000</v>
       </c>
       <c r="N21" t="n" s="0">
-        <v>0.600000</v>
+        <v>32.080000</v>
       </c>
       <c r="O21" t="n" s="0">
         <v/>
       </c>
       <c r="P21" t="s" s="0">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="n" s="0">
-        <v>1.710000</v>
+        <v>9.120000</v>
       </c>
       <c r="R21" t="n" s="0">
-        <v>91.970000</v>
+        <v>67.880000</v>
       </c>
       <c r="S21" t="n" s="0">
-        <v>4.290000</v>
+        <v>33.020000</v>
       </c>
       <c r="T21" t="n" s="0">
-        <v>2.710000</v>
+        <v>11.880000</v>
       </c>
       <c r="U21" t="n" s="0">
-        <v>2.680000</v>
+        <v>30.050000</v>
       </c>
       <c r="V21" t="n" s="0">
-        <v>1.410000</v>
+        <v>5.560000</v>
       </c>
       <c r="W21" t="n" s="0">
-        <v>4.130000</v>
+        <v>17.440000</v>
       </c>
       <c r="X21" t="n" s="0">
-        <v>6.970000</v>
+        <v>63.070000</v>
       </c>
       <c r="Y21" t="n" s="0">
-        <v>12.170000</v>
+        <v>107.180000</v>
       </c>
       <c r="Z21" t="n" s="0">
-        <v>0.570000</v>
+        <v>0.710000</v>
       </c>
       <c r="AA21" t="n" s="0">
-        <v>0.062000</v>
+        <v>0.025000</v>
       </c>
       <c r="AB21" t="n" s="0">
-        <v>10.840000</v>
+        <v>577.500000</v>
       </c>
       <c r="AC21" t="n" s="0">
-        <v>0.600000</v>
+        <v>32.080000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B22" t="n" s="0">
-        <v>4.770000</v>
+        <v>1.700000</v>
       </c>
       <c r="C22" t="n" s="0">
-        <v>80.480000</v>
+        <v>91.970000</v>
       </c>
       <c r="D22" t="n" s="0">
-        <v>9.570000</v>
+        <v>4.300000</v>
       </c>
       <c r="E22" t="n" s="0">
-        <v>4.790000</v>
+        <v>2.700000</v>
       </c>
       <c r="F22" t="n" s="0">
-        <v>10.430000</v>
+        <v>2.670000</v>
       </c>
       <c r="G22" t="n" s="0">
-        <v>3.260000</v>
+        <v>1.380000</v>
       </c>
       <c r="H22" t="n" s="0">
-        <v>8.040000</v>
+        <v>4.080000</v>
       </c>
       <c r="I22" t="n" s="0">
-        <v>20.000000</v>
+        <v>6.970000</v>
       </c>
       <c r="J22" t="n" s="0">
-        <v>35.300000</v>
+        <v>11.970000</v>
       </c>
       <c r="K22" t="n" s="0">
-        <v>2.390000</v>
+        <v>0.570000</v>
       </c>
       <c r="L22" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.062000</v>
       </c>
       <c r="M22" t="n" s="0">
-        <v>393.870000</v>
+        <v>10.840000</v>
       </c>
       <c r="N22" t="n" s="0">
-        <v>21.880000</v>
+        <v>0.600000</v>
       </c>
       <c r="O22" t="n" s="0">
         <v/>
       </c>
       <c r="P22" t="s" s="0">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="Q22" t="n" s="0">
-        <v>4.740000</v>
+        <v>1.710000</v>
       </c>
       <c r="R22" t="n" s="0">
-        <v>80.490000</v>
+        <v>91.970000</v>
       </c>
       <c r="S22" t="n" s="0">
-        <v>9.480000</v>
+        <v>4.290000</v>
       </c>
       <c r="T22" t="n" s="0">
-        <v>4.770000</v>
+        <v>2.710000</v>
       </c>
       <c r="U22" t="n" s="0">
-        <v>10.280000</v>
+        <v>2.680000</v>
       </c>
       <c r="V22" t="n" s="0">
-        <v>3.260000</v>
+        <v>1.410000</v>
       </c>
       <c r="W22" t="n" s="0">
-        <v>8.020000</v>
+        <v>4.130000</v>
       </c>
       <c r="X22" t="n" s="0">
-        <v>19.760000</v>
+        <v>6.970000</v>
       </c>
       <c r="Y22" t="n" s="0">
-        <v>35.060000</v>
+        <v>12.170000</v>
       </c>
       <c r="Z22" t="n" s="0">
-        <v>2.390000</v>
+        <v>0.570000</v>
       </c>
       <c r="AA22" t="n" s="0">
-        <v>0.034000</v>
+        <v>0.062000</v>
       </c>
       <c r="AB22" t="n" s="0">
-        <v>393.870000</v>
+        <v>10.840000</v>
       </c>
       <c r="AC22" t="n" s="0">
-        <v>21.880000</v>
+        <v>0.600000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>44</v>
+        <v>71</v>
       </c>
       <c r="B23" t="n" s="0">
-        <v>4.600000</v>
+        <v>4.770000</v>
       </c>
       <c r="C23" t="n" s="0">
-        <v>80.410000</v>
+        <v>80.480000</v>
       </c>
       <c r="D23" t="n" s="0">
-        <v>9.330000</v>
+        <v>9.570000</v>
       </c>
       <c r="E23" t="n" s="0">
-        <v>4.810000</v>
+        <v>4.790000</v>
       </c>
       <c r="F23" t="n" s="0">
-        <v>9.920000</v>
+        <v>10.430000</v>
       </c>
       <c r="G23" t="n" s="0">
-        <v>3.220000</v>
+        <v>3.260000</v>
       </c>
       <c r="H23" t="n" s="0">
-        <v>8.030000</v>
+        <v>8.040000</v>
       </c>
       <c r="I23" t="n" s="0">
-        <v>19.250000</v>
+        <v>20.000000</v>
       </c>
       <c r="J23" t="n" s="0">
-        <v>34.720000</v>
+        <v>35.300000</v>
       </c>
       <c r="K23" t="n" s="0">
-        <v>2.640000</v>
+        <v>2.390000</v>
       </c>
       <c r="L23" t="n" s="0">
         <v>0.034000</v>
       </c>
       <c r="M23" t="n" s="0">
-        <v>458.350000</v>
+        <v>393.870000</v>
       </c>
       <c r="N23" t="n" s="0">
-        <v>25.460000</v>
+        <v>21.880000</v>
       </c>
       <c r="O23" t="n" s="0">
         <v/>
       </c>
       <c r="P23" t="s" s="0">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="Q23" t="n" s="0">
-        <v>4.600000</v>
+        <v>4.740000</v>
       </c>
       <c r="R23" t="n" s="0">
-        <v>80.410000</v>
+        <v>80.490000</v>
       </c>
       <c r="S23" t="n" s="0">
-        <v>9.330000</v>
+        <v>9.480000</v>
       </c>
       <c r="T23" t="n" s="0">
-        <v>4.810000</v>
+        <v>4.770000</v>
       </c>
       <c r="U23" t="n" s="0">
-        <v>9.920000</v>
+        <v>10.280000</v>
       </c>
       <c r="V23" t="n" s="0">
-        <v>3.220000</v>
+        <v>3.260000</v>
       </c>
       <c r="W23" t="n" s="0">
-        <v>8.030000</v>
+        <v>8.020000</v>
       </c>
       <c r="X23" t="n" s="0">
-        <v>19.250000</v>
+        <v>19.760000</v>
       </c>
       <c r="Y23" t="n" s="0">
-        <v>34.720000</v>
+        <v>35.060000</v>
       </c>
       <c r="Z23" t="n" s="0">
-        <v>2.640000</v>
+        <v>2.390000</v>
       </c>
       <c r="AA23" t="n" s="0">
         <v>0.034000</v>
       </c>
       <c r="AB23" t="n" s="0">
-        <v>458.350000</v>
+        <v>393.870000</v>
       </c>
       <c r="AC23" t="n" s="0">
-        <v>25.460000</v>
+        <v>21.880000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B24" t="n" s="0">
-        <v>5.130000</v>
+        <v>4.600000</v>
       </c>
       <c r="C24" t="n" s="0">
-        <v>73.420000</v>
+        <v>80.410000</v>
       </c>
       <c r="D24" t="n" s="0">
-        <v>17.920000</v>
+        <v>9.330000</v>
       </c>
       <c r="E24" t="n" s="0">
-        <v>6.770000</v>
+        <v>4.810000</v>
       </c>
       <c r="F24" t="n" s="0">
-        <v>11.960000</v>
+        <v>9.920000</v>
       </c>
       <c r="G24" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.220000</v>
       </c>
       <c r="H24" t="n" s="0">
-        <v>11.570000</v>
+        <v>8.030000</v>
       </c>
       <c r="I24" t="n" s="0">
-        <v>29.890000</v>
+        <v>19.250000</v>
       </c>
       <c r="J24" t="n" s="0">
-        <v>58.170000</v>
+        <v>34.720000</v>
       </c>
       <c r="K24" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.640000</v>
       </c>
       <c r="L24" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="M24" t="n" s="0">
-        <v>0.000000</v>
+        <v>458.350000</v>
       </c>
       <c r="N24" t="n" s="0">
-        <v>0.000000</v>
+        <v>25.460000</v>
       </c>
       <c r="O24" t="n" s="0">
         <v/>
       </c>
       <c r="P24" t="s" s="0">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="Q24" t="n" s="0">
-        <v>5.060000</v>
+        <v>4.600000</v>
       </c>
       <c r="R24" t="n" s="0">
-        <v>73.430000</v>
+        <v>80.410000</v>
       </c>
       <c r="S24" t="n" s="0">
-        <v>17.750000</v>
+        <v>9.330000</v>
       </c>
       <c r="T24" t="n" s="0">
-        <v>6.770000</v>
+        <v>4.810000</v>
       </c>
       <c r="U24" t="n" s="0">
-        <v>11.680000</v>
+        <v>9.920000</v>
       </c>
       <c r="V24" t="n" s="0">
-        <v>4.790000</v>
+        <v>3.220000</v>
       </c>
       <c r="W24" t="n" s="0">
-        <v>11.570000</v>
+        <v>8.030000</v>
       </c>
       <c r="X24" t="n" s="0">
-        <v>29.430000</v>
+        <v>19.250000</v>
       </c>
       <c r="Y24" t="n" s="0">
-        <v>58.070000</v>
+        <v>34.720000</v>
       </c>
       <c r="Z24" t="n" s="0">
-        <v>0.000000</v>
+        <v>2.640000</v>
       </c>
       <c r="AA24" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.034000</v>
       </c>
       <c r="AB24" t="n" s="0">
-        <v>0.000000</v>
+        <v>458.350000</v>
       </c>
       <c r="AC24" t="n" s="0">
-        <v>0.000000</v>
+        <v>25.460000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="B25" t="n" s="0">
-        <v>4.450000</v>
+        <v>5.130000</v>
       </c>
       <c r="C25" t="n" s="0">
-        <v>80.000000</v>
+        <v>73.420000</v>
       </c>
       <c r="D25" t="n" s="0">
-        <v>26.350000</v>
+        <v>17.920000</v>
       </c>
       <c r="E25" t="n" s="0">
-        <v>7.600000</v>
+        <v>6.770000</v>
       </c>
       <c r="F25" t="n" s="0">
-        <v>17.450000</v>
+        <v>11.960000</v>
       </c>
       <c r="G25" t="n" s="0">
-        <v>3.050000</v>
+        <v>4.790000</v>
       </c>
       <c r="H25" t="n" s="0">
-        <v>10.650000</v>
+        <v>11.570000</v>
       </c>
       <c r="I25" t="n" s="0">
-        <v>43.800000</v>
+        <v>29.890000</v>
       </c>
       <c r="J25" t="n" s="0">
-        <v>63.760000</v>
+        <v>58.170000</v>
       </c>
       <c r="K25" t="n" s="0">
         <v>0.000000</v>
@@ -2774,34 +2861,34 @@
         <v/>
       </c>
       <c r="P25" t="s" s="0">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="Q25" t="n" s="0">
-        <v>4.380000</v>
+        <v>5.060000</v>
       </c>
       <c r="R25" t="n" s="0">
-        <v>79.290000</v>
+        <v>73.430000</v>
       </c>
       <c r="S25" t="n" s="0">
-        <v>27.290000</v>
+        <v>17.750000</v>
       </c>
       <c r="T25" t="n" s="0">
-        <v>7.810000</v>
+        <v>6.770000</v>
       </c>
       <c r="U25" t="n" s="0">
-        <v>17.570000</v>
+        <v>11.680000</v>
       </c>
       <c r="V25" t="n" s="0">
-        <v>3.140000</v>
+        <v>4.790000</v>
       </c>
       <c r="W25" t="n" s="0">
-        <v>10.950000</v>
+        <v>11.570000</v>
       </c>
       <c r="X25" t="n" s="0">
-        <v>44.860000</v>
+        <v>29.430000</v>
       </c>
       <c r="Y25" t="n" s="0">
-        <v>65.400000</v>
+        <v>58.070000</v>
       </c>
       <c r="Z25" t="n" s="0">
         <v>0.000000</v>
@@ -2818,541 +2905,541 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B26" t="n" s="0">
-        <v>4.710000</v>
+        <v>4.450000</v>
       </c>
       <c r="C26" t="n" s="0">
-        <v>73.000000</v>
+        <v>80.000000</v>
       </c>
       <c r="D26" t="n" s="0">
-        <v>20.000000</v>
+        <v>26.350000</v>
       </c>
       <c r="E26" t="n" s="0">
-        <v>7.570000</v>
+        <v>7.600000</v>
       </c>
       <c r="F26" t="n" s="0">
-        <v>17.140000</v>
+        <v>17.450000</v>
       </c>
       <c r="G26" t="n" s="0">
-        <v>5.430000</v>
+        <v>3.050000</v>
       </c>
       <c r="H26" t="n" s="0">
-        <v>13.000000</v>
+        <v>10.650000</v>
       </c>
       <c r="I26" t="n" s="0">
-        <v>37.140000</v>
+        <v>43.800000</v>
       </c>
       <c r="J26" t="n" s="0">
-        <v>70.010000</v>
+        <v>63.760000</v>
       </c>
       <c r="K26" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="L26" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.000000</v>
       </c>
       <c r="M26" t="n" s="0">
-        <v>32.860000</v>
+        <v>0.000000</v>
       </c>
       <c r="N26" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.000000</v>
       </c>
       <c r="O26" t="n" s="0">
         <v/>
       </c>
       <c r="P26" t="s" s="0">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="Q26" t="n" s="0">
-        <v>4.430000</v>
+        <v>4.380000</v>
       </c>
       <c r="R26" t="n" s="0">
-        <v>73.140000</v>
+        <v>79.290000</v>
       </c>
       <c r="S26" t="n" s="0">
-        <v>19.430000</v>
+        <v>27.290000</v>
       </c>
       <c r="T26" t="n" s="0">
-        <v>7.570000</v>
+        <v>7.810000</v>
       </c>
       <c r="U26" t="n" s="0">
-        <v>15.710000</v>
+        <v>17.570000</v>
       </c>
       <c r="V26" t="n" s="0">
-        <v>5.430000</v>
+        <v>3.140000</v>
       </c>
       <c r="W26" t="n" s="0">
-        <v>13.000000</v>
+        <v>10.950000</v>
       </c>
       <c r="X26" t="n" s="0">
-        <v>35.140000</v>
+        <v>44.860000</v>
       </c>
       <c r="Y26" t="n" s="0">
-        <v>69.320000</v>
+        <v>65.400000</v>
       </c>
       <c r="Z26" t="n" s="0">
-        <v>1.290000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA26" t="n" s="0">
-        <v>0.071000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB26" t="n" s="0">
-        <v>32.860000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC26" t="n" s="0">
-        <v>1.830000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B27" t="n" s="0">
-        <v>2.140000</v>
+        <v>4.710000</v>
       </c>
       <c r="C27" t="n" s="0">
-        <v>89.860000</v>
+        <v>73.000000</v>
       </c>
       <c r="D27" t="n" s="0">
-        <v>13.570000</v>
+        <v>20.000000</v>
       </c>
       <c r="E27" t="n" s="0">
-        <v>5.290000</v>
+        <v>7.570000</v>
       </c>
       <c r="F27" t="n" s="0">
-        <v>5.710000</v>
+        <v>17.140000</v>
       </c>
       <c r="G27" t="n" s="0">
-        <v>2.000000</v>
+        <v>5.430000</v>
       </c>
       <c r="H27" t="n" s="0">
-        <v>7.290000</v>
+        <v>13.000000</v>
       </c>
       <c r="I27" t="n" s="0">
-        <v>19.290000</v>
+        <v>37.140000</v>
       </c>
       <c r="J27" t="n" s="0">
-        <v>35.910000</v>
+        <v>70.010000</v>
       </c>
       <c r="K27" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.290000</v>
       </c>
       <c r="L27" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.071000</v>
       </c>
       <c r="M27" t="n" s="0">
-        <v>0.000000</v>
+        <v>32.860000</v>
       </c>
       <c r="N27" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.830000</v>
       </c>
       <c r="O27" t="n" s="0">
         <v/>
       </c>
       <c r="P27" t="s" s="0">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="Q27" t="n" s="0">
-        <v>3.290000</v>
+        <v>4.430000</v>
       </c>
       <c r="R27" t="n" s="0">
-        <v>88.860000</v>
+        <v>73.140000</v>
       </c>
       <c r="S27" t="n" s="0">
-        <v>21.140000</v>
+        <v>19.430000</v>
       </c>
       <c r="T27" t="n" s="0">
-        <v>6.710000</v>
+        <v>7.570000</v>
       </c>
       <c r="U27" t="n" s="0">
-        <v>12.140000</v>
+        <v>15.710000</v>
       </c>
       <c r="V27" t="n" s="0">
-        <v>3.430000</v>
+        <v>5.430000</v>
       </c>
       <c r="W27" t="n" s="0">
-        <v>10.140000</v>
+        <v>13.000000</v>
       </c>
       <c r="X27" t="n" s="0">
-        <v>33.290000</v>
+        <v>35.140000</v>
       </c>
       <c r="Y27" t="n" s="0">
-        <v>61.990000</v>
+        <v>69.320000</v>
       </c>
       <c r="Z27" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.290000</v>
       </c>
       <c r="AA27" t="n" s="0">
-        <v>0.000000</v>
+        <v>0.071000</v>
       </c>
       <c r="AB27" t="n" s="0">
-        <v>0.000000</v>
+        <v>32.860000</v>
       </c>
       <c r="AC27" t="n" s="0">
-        <v>0.000000</v>
+        <v>1.830000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B28" t="n" s="0">
-        <v>2.950000</v>
+        <v>2.140000</v>
       </c>
       <c r="C28" t="n" s="0">
-        <v>85.100000</v>
+        <v>89.860000</v>
       </c>
       <c r="D28" t="n" s="0">
-        <v>13.750000</v>
+        <v>13.570000</v>
       </c>
       <c r="E28" t="n" s="0">
-        <v>5.550000</v>
+        <v>5.290000</v>
       </c>
       <c r="F28" t="n" s="0">
-        <v>12.100000</v>
+        <v>5.710000</v>
       </c>
       <c r="G28" t="n" s="0">
-        <v>3.250000</v>
+        <v>2.000000</v>
       </c>
       <c r="H28" t="n" s="0">
-        <v>8.800000</v>
+        <v>7.290000</v>
       </c>
       <c r="I28" t="n" s="0">
-        <v>25.850000</v>
+        <v>19.290000</v>
       </c>
       <c r="J28" t="n" s="0">
-        <v>46.450000</v>
+        <v>35.910000</v>
       </c>
       <c r="K28" t="n" s="0">
-        <v>0.450000</v>
+        <v>0.000000</v>
       </c>
       <c r="L28" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="M28" t="n" s="0">
-        <v>14.920000</v>
+        <v>0.000000</v>
       </c>
       <c r="N28" t="n" s="0">
-        <v>0.830000</v>
+        <v>0.000000</v>
       </c>
       <c r="O28" t="n" s="0">
         <v/>
       </c>
       <c r="P28" t="s" s="0">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="Q28" t="n" s="0">
-        <v>2.900000</v>
+        <v>3.290000</v>
       </c>
       <c r="R28" t="n" s="0">
-        <v>85.150000</v>
+        <v>88.860000</v>
       </c>
       <c r="S28" t="n" s="0">
-        <v>13.650000</v>
+        <v>21.140000</v>
       </c>
       <c r="T28" t="n" s="0">
-        <v>5.550000</v>
+        <v>6.710000</v>
       </c>
       <c r="U28" t="n" s="0">
-        <v>11.850000</v>
+        <v>12.140000</v>
       </c>
       <c r="V28" t="n" s="0">
-        <v>3.150000</v>
+        <v>3.430000</v>
       </c>
       <c r="W28" t="n" s="0">
-        <v>8.700000</v>
+        <v>10.140000</v>
       </c>
       <c r="X28" t="n" s="0">
-        <v>25.500000</v>
+        <v>33.290000</v>
       </c>
       <c r="Y28" t="n" s="0">
-        <v>45.640000</v>
+        <v>61.990000</v>
       </c>
       <c r="Z28" t="n" s="0">
-        <v>0.450000</v>
+        <v>0.000000</v>
       </c>
       <c r="AA28" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.000000</v>
       </c>
       <c r="AB28" t="n" s="0">
-        <v>14.920000</v>
+        <v>0.000000</v>
       </c>
       <c r="AC28" t="n" s="0">
-        <v>0.830000</v>
+        <v>0.000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="B29" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.950000</v>
       </c>
       <c r="C29" t="n" s="0">
-        <v>80.300000</v>
+        <v>85.100000</v>
       </c>
       <c r="D29" t="n" s="0">
-        <v>10.130000</v>
+        <v>13.750000</v>
       </c>
       <c r="E29" t="n" s="0">
-        <v>3.750000</v>
+        <v>5.550000</v>
       </c>
       <c r="F29" t="n" s="0">
-        <v>7.160000</v>
+        <v>12.100000</v>
       </c>
       <c r="G29" t="n" s="0">
-        <v>3.040000</v>
+        <v>3.250000</v>
       </c>
       <c r="H29" t="n" s="0">
-        <v>6.800000</v>
+        <v>8.800000</v>
       </c>
       <c r="I29" t="n" s="0">
-        <v>17.290000</v>
+        <v>25.850000</v>
       </c>
       <c r="J29" t="n" s="0">
-        <v>29.440000</v>
+        <v>46.450000</v>
       </c>
       <c r="K29" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.450000</v>
       </c>
       <c r="L29" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.022000</v>
       </c>
       <c r="M29" t="n" s="0">
-        <v>0.087000</v>
+        <v>14.920000</v>
       </c>
       <c r="N29" t="n" s="0">
-        <v>0.004800</v>
+        <v>0.830000</v>
       </c>
       <c r="O29" t="n" s="0">
         <v/>
       </c>
       <c r="P29" t="s" s="0">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="Q29" t="n" s="0">
-        <v>2.060000</v>
+        <v>2.900000</v>
       </c>
       <c r="R29" t="n" s="0">
-        <v>80.300000</v>
+        <v>85.150000</v>
       </c>
       <c r="S29" t="n" s="0">
-        <v>10.170000</v>
+        <v>13.650000</v>
       </c>
       <c r="T29" t="n" s="0">
-        <v>3.770000</v>
+        <v>5.550000</v>
       </c>
       <c r="U29" t="n" s="0">
-        <v>7.130000</v>
+        <v>11.850000</v>
       </c>
       <c r="V29" t="n" s="0">
-        <v>3.030000</v>
+        <v>3.150000</v>
       </c>
       <c r="W29" t="n" s="0">
-        <v>6.800000</v>
+        <v>8.700000</v>
       </c>
       <c r="X29" t="n" s="0">
-        <v>17.300000</v>
+        <v>25.500000</v>
       </c>
       <c r="Y29" t="n" s="0">
-        <v>29.440000</v>
+        <v>45.640000</v>
       </c>
       <c r="Z29" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.450000</v>
       </c>
       <c r="AA29" t="n" s="0">
-        <v>0.014000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB29" t="n" s="0">
-        <v>0.087000</v>
+        <v>14.920000</v>
       </c>
       <c r="AC29" t="n" s="0">
-        <v>0.004800</v>
+        <v>0.830000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="B30" t="n" s="0">
-        <v>5.000000</v>
+        <v>2.060000</v>
       </c>
       <c r="C30" t="n" s="0">
-        <v>78.860000</v>
+        <v>80.300000</v>
       </c>
       <c r="D30" t="n" s="0">
-        <v>16.000000</v>
+        <v>10.130000</v>
       </c>
       <c r="E30" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.750000</v>
       </c>
       <c r="F30" t="n" s="0">
-        <v>11.570000</v>
+        <v>7.160000</v>
       </c>
       <c r="G30" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.040000</v>
       </c>
       <c r="H30" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="I30" t="n" s="0">
-        <v>27.570000</v>
+        <v>17.290000</v>
       </c>
       <c r="J30" t="n" s="0">
-        <v>48.540000</v>
+        <v>29.440000</v>
       </c>
       <c r="K30" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="L30" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="M30" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="N30" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
       <c r="O30" t="n" s="0">
         <v/>
       </c>
       <c r="P30" t="s" s="0">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="Q30" t="n" s="0">
-        <v>5.140000</v>
+        <v>2.060000</v>
       </c>
       <c r="R30" t="n" s="0">
-        <v>78.710000</v>
+        <v>80.300000</v>
       </c>
       <c r="S30" t="n" s="0">
-        <v>17.430000</v>
+        <v>10.170000</v>
       </c>
       <c r="T30" t="n" s="0">
-        <v>6.290000</v>
+        <v>3.770000</v>
       </c>
       <c r="U30" t="n" s="0">
-        <v>13.000000</v>
+        <v>7.130000</v>
       </c>
       <c r="V30" t="n" s="0">
-        <v>3.570000</v>
+        <v>3.030000</v>
       </c>
       <c r="W30" t="n" s="0">
-        <v>9.860000</v>
+        <v>6.800000</v>
       </c>
       <c r="X30" t="n" s="0">
-        <v>30.430000</v>
+        <v>17.300000</v>
       </c>
       <c r="Y30" t="n" s="0">
-        <v>49.370000</v>
+        <v>29.440000</v>
       </c>
       <c r="Z30" t="n" s="0">
-        <v>0.430000</v>
+        <v>0.014000</v>
       </c>
       <c r="AA30" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.014000</v>
       </c>
       <c r="AB30" t="n" s="0">
-        <v>10.380000</v>
+        <v>0.087000</v>
       </c>
       <c r="AC30" t="n" s="0">
-        <v>0.580000</v>
+        <v>0.004800</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="B31" t="n" s="0">
-        <v>6.000000</v>
+        <v>5.000000</v>
       </c>
       <c r="C31" t="n" s="0">
-        <v>65.240000</v>
+        <v>78.860000</v>
       </c>
       <c r="D31" t="n" s="0">
-        <v>51.360000</v>
+        <v>16.000000</v>
       </c>
       <c r="E31" t="n" s="0">
-        <v>11.980000</v>
+        <v>6.290000</v>
       </c>
       <c r="F31" t="n" s="0">
-        <v>44.050000</v>
+        <v>11.570000</v>
       </c>
       <c r="G31" t="n" s="0">
-        <v>8.380000</v>
+        <v>3.570000</v>
       </c>
       <c r="H31" t="n" s="0">
-        <v>20.360000</v>
+        <v>9.860000</v>
       </c>
       <c r="I31" t="n" s="0">
-        <v>95.400000</v>
+        <v>27.570000</v>
       </c>
       <c r="J31" t="n" s="0">
-        <v>133.090000</v>
+        <v>48.540000</v>
       </c>
       <c r="K31" t="n" s="0">
-        <v>0.290000</v>
+        <v>0.430000</v>
       </c>
       <c r="L31" t="n" s="0">
-        <v>0.022000</v>
+        <v>0.210000</v>
       </c>
       <c r="M31" t="n" s="0">
-        <v>3.790000</v>
+        <v>10.380000</v>
       </c>
       <c r="N31" t="n" s="0">
+        <v>0.580000</v>
+      </c>
+      <c r="O31" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P31" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="Q31" t="n" s="0">
+        <v>5.140000</v>
+      </c>
+      <c r="R31" t="n" s="0">
+        <v>78.710000</v>
+      </c>
+      <c r="S31" t="n" s="0">
+        <v>17.430000</v>
+      </c>
+      <c r="T31" t="n" s="0">
+        <v>6.290000</v>
+      </c>
+      <c r="U31" t="n" s="0">
+        <v>13.000000</v>
+      </c>
+      <c r="V31" t="n" s="0">
+        <v>3.570000</v>
+      </c>
+      <c r="W31" t="n" s="0">
+        <v>9.860000</v>
+      </c>
+      <c r="X31" t="n" s="0">
+        <v>30.430000</v>
+      </c>
+      <c r="Y31" t="n" s="0">
+        <v>49.370000</v>
+      </c>
+      <c r="Z31" t="n" s="0">
+        <v>0.430000</v>
+      </c>
+      <c r="AA31" t="n" s="0">
         <v>0.210000</v>
       </c>
-      <c r="O31" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P31" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="Q31" t="n" s="0">
-        <v>6.020000</v>
-      </c>
-      <c r="R31" t="n" s="0">
-        <v>65.190000</v>
-      </c>
-      <c r="S31" t="n" s="0">
-        <v>51.400000</v>
-      </c>
-      <c r="T31" t="n" s="0">
-        <v>11.980000</v>
-      </c>
-      <c r="U31" t="n" s="0">
-        <v>44.070000</v>
-      </c>
-      <c r="V31" t="n" s="0">
-        <v>8.380000</v>
-      </c>
-      <c r="W31" t="n" s="0">
-        <v>20.360000</v>
-      </c>
-      <c r="X31" t="n" s="0">
-        <v>95.480000</v>
-      </c>
-      <c r="Y31" t="n" s="0">
-        <v>133.130000</v>
-      </c>
-      <c r="Z31" t="n" s="0">
-        <v>0.290000</v>
-      </c>
-      <c r="AA31" t="n" s="0">
-        <v>0.022000</v>
-      </c>
       <c r="AB31" t="n" s="0">
-        <v>3.790000</v>
+        <v>10.380000</v>
       </c>
       <c r="AC31" t="n" s="0">
-        <v>0.210000</v>
+        <v>0.580000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B32" t="n" s="0">
         <v>6.000000</v>
@@ -3397,34 +3484,34 @@
         <v/>
       </c>
       <c r="P32" t="s" s="0">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="Q32" t="n" s="0">
-        <v>5.980000</v>
+        <v>6.020000</v>
       </c>
       <c r="R32" t="n" s="0">
-        <v>65.260000</v>
+        <v>65.190000</v>
       </c>
       <c r="S32" t="n" s="0">
-        <v>51.190000</v>
+        <v>51.400000</v>
       </c>
       <c r="T32" t="n" s="0">
-        <v>12.000000</v>
+        <v>11.980000</v>
       </c>
       <c r="U32" t="n" s="0">
-        <v>43.860000</v>
+        <v>44.070000</v>
       </c>
       <c r="V32" t="n" s="0">
-        <v>8.330000</v>
+        <v>8.380000</v>
       </c>
       <c r="W32" t="n" s="0">
-        <v>20.330000</v>
+        <v>20.360000</v>
       </c>
       <c r="X32" t="n" s="0">
-        <v>95.050000</v>
+        <v>95.480000</v>
       </c>
       <c r="Y32" t="n" s="0">
-        <v>132.860000</v>
+        <v>133.130000</v>
       </c>
       <c r="Z32" t="n" s="0">
         <v>0.290000</v>
@@ -3441,358 +3528,358 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>64</v>
+        <v>91</v>
       </c>
       <c r="B33" t="n" s="0">
-        <v>3.000000</v>
+        <v>6.000000</v>
       </c>
       <c r="C33" t="n" s="0">
-        <v>72.250000</v>
+        <v>65.240000</v>
       </c>
       <c r="D33" t="n" s="0">
-        <v>19.000000</v>
+        <v>51.360000</v>
       </c>
       <c r="E33" t="n" s="0">
-        <v>8.750000</v>
+        <v>11.980000</v>
       </c>
       <c r="F33" t="n" s="0">
-        <v>11.000000</v>
+        <v>44.050000</v>
       </c>
       <c r="G33" t="n" s="0">
-        <v>5.000000</v>
+        <v>8.380000</v>
       </c>
       <c r="H33" t="n" s="0">
-        <v>13.750000</v>
+        <v>20.360000</v>
       </c>
       <c r="I33" t="n" s="0">
-        <v>30.000000</v>
+        <v>95.400000</v>
       </c>
       <c r="J33" t="n" s="0">
-        <v>72.030000</v>
+        <v>133.090000</v>
       </c>
       <c r="K33" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.290000</v>
       </c>
       <c r="L33" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.022000</v>
       </c>
       <c r="M33" t="n" s="0">
-        <v>5.710000</v>
+        <v>3.790000</v>
       </c>
       <c r="N33" t="n" s="0">
-        <v>0.320000</v>
+        <v>0.210000</v>
       </c>
       <c r="O33" t="n" s="0">
         <v/>
       </c>
       <c r="P33" t="s" s="0">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="Q33" t="n" s="0">
-        <v>2.500000</v>
+        <v>5.980000</v>
       </c>
       <c r="R33" t="n" s="0">
-        <v>73.750000</v>
+        <v>65.260000</v>
       </c>
       <c r="S33" t="n" s="0">
-        <v>14.500000</v>
+        <v>51.190000</v>
       </c>
       <c r="T33" t="n" s="0">
-        <v>7.750000</v>
+        <v>12.000000</v>
       </c>
       <c r="U33" t="n" s="0">
-        <v>8.500000</v>
+        <v>43.860000</v>
       </c>
       <c r="V33" t="n" s="0">
-        <v>4.250000</v>
+        <v>8.330000</v>
       </c>
       <c r="W33" t="n" s="0">
-        <v>12.000000</v>
+        <v>20.330000</v>
       </c>
       <c r="X33" t="n" s="0">
-        <v>23.000000</v>
+        <v>95.050000</v>
       </c>
       <c r="Y33" t="n" s="0">
-        <v>57.840000</v>
+        <v>132.860000</v>
       </c>
       <c r="Z33" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.290000</v>
       </c>
       <c r="AA33" t="n" s="0">
-        <v>0.500000</v>
+        <v>0.022000</v>
       </c>
       <c r="AB33" t="n" s="0">
-        <v>5.710000</v>
+        <v>3.790000</v>
       </c>
       <c r="AC33" t="n" s="0">
-        <v>0.320000</v>
+        <v>0.210000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B34" t="n" s="0">
-        <v>2.570000</v>
+        <v>3.000000</v>
       </c>
       <c r="C34" t="n" s="0">
-        <v>82.860000</v>
+        <v>72.250000</v>
       </c>
       <c r="D34" t="n" s="0">
-        <v>14.860000</v>
+        <v>19.000000</v>
       </c>
       <c r="E34" t="n" s="0">
-        <v>6.430000</v>
+        <v>8.750000</v>
       </c>
       <c r="F34" t="n" s="0">
-        <v>7.710000</v>
+        <v>11.000000</v>
       </c>
       <c r="G34" t="n" s="0">
-        <v>3.570000</v>
+        <v>5.000000</v>
       </c>
       <c r="H34" t="n" s="0">
-        <v>10.000000</v>
+        <v>13.750000</v>
       </c>
       <c r="I34" t="n" s="0">
-        <v>22.570000</v>
+        <v>30.000000</v>
       </c>
       <c r="J34" t="n" s="0">
-        <v>50.990000</v>
+        <v>72.030000</v>
       </c>
       <c r="K34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="L34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="M34" t="n" s="0">
-        <v>2.580000</v>
+        <v>5.710000</v>
       </c>
       <c r="N34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.320000</v>
       </c>
       <c r="O34" t="n" s="0">
         <v/>
       </c>
       <c r="P34" t="s" s="0">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="Q34" t="n" s="0">
-        <v>2.570000</v>
+        <v>2.500000</v>
       </c>
       <c r="R34" t="n" s="0">
-        <v>83.000000</v>
+        <v>73.750000</v>
       </c>
       <c r="S34" t="n" s="0">
-        <v>13.570000</v>
+        <v>14.500000</v>
       </c>
       <c r="T34" t="n" s="0">
-        <v>6.000000</v>
+        <v>7.750000</v>
       </c>
       <c r="U34" t="n" s="0">
-        <v>7.570000</v>
+        <v>8.500000</v>
       </c>
       <c r="V34" t="n" s="0">
-        <v>3.570000</v>
+        <v>4.250000</v>
       </c>
       <c r="W34" t="n" s="0">
-        <v>9.570000</v>
+        <v>12.000000</v>
       </c>
       <c r="X34" t="n" s="0">
-        <v>21.140000</v>
+        <v>23.000000</v>
       </c>
       <c r="Y34" t="n" s="0">
-        <v>47.380000</v>
+        <v>57.840000</v>
       </c>
       <c r="Z34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="AA34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.500000</v>
       </c>
       <c r="AB34" t="n" s="0">
-        <v>2.580000</v>
+        <v>5.710000</v>
       </c>
       <c r="AC34" t="n" s="0">
-        <v>0.140000</v>
+        <v>0.320000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>68</v>
+        <v>95</v>
       </c>
       <c r="B35" t="n" s="0">
+        <v>2.570000</v>
+      </c>
+      <c r="C35" t="n" s="0">
+        <v>82.860000</v>
+      </c>
+      <c r="D35" t="n" s="0">
+        <v>14.860000</v>
+      </c>
+      <c r="E35" t="n" s="0">
+        <v>6.430000</v>
+      </c>
+      <c r="F35" t="n" s="0">
+        <v>7.710000</v>
+      </c>
+      <c r="G35" t="n" s="0">
+        <v>3.570000</v>
+      </c>
+      <c r="H35" t="n" s="0">
+        <v>10.000000</v>
+      </c>
+      <c r="I35" t="n" s="0">
+        <v>22.570000</v>
+      </c>
+      <c r="J35" t="n" s="0">
+        <v>50.990000</v>
+      </c>
+      <c r="K35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+      <c r="L35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+      <c r="M35" t="n" s="0">
+        <v>2.580000</v>
+      </c>
+      <c r="N35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+      <c r="O35" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P35" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="Q35" t="n" s="0">
+        <v>2.570000</v>
+      </c>
+      <c r="R35" t="n" s="0">
+        <v>83.000000</v>
+      </c>
+      <c r="S35" t="n" s="0">
+        <v>13.570000</v>
+      </c>
+      <c r="T35" t="n" s="0">
+        <v>6.000000</v>
+      </c>
+      <c r="U35" t="n" s="0">
+        <v>7.570000</v>
+      </c>
+      <c r="V35" t="n" s="0">
+        <v>3.570000</v>
+      </c>
+      <c r="W35" t="n" s="0">
+        <v>9.570000</v>
+      </c>
+      <c r="X35" t="n" s="0">
+        <v>21.140000</v>
+      </c>
+      <c r="Y35" t="n" s="0">
+        <v>47.380000</v>
+      </c>
+      <c r="Z35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+      <c r="AA35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+      <c r="AB35" t="n" s="0">
+        <v>2.580000</v>
+      </c>
+      <c r="AC35" t="n" s="0">
+        <v>0.140000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B36" t="n" s="0">
         <v>1.600000</v>
       </c>
-      <c r="C35" t="n" s="0">
+      <c r="C36" t="n" s="0">
         <v>85.700000</v>
       </c>
-      <c r="D35" t="n" s="0">
+      <c r="D36" t="n" s="0">
         <v>5.400000</v>
       </c>
-      <c r="E35" t="n" s="0">
+      <c r="E36" t="n" s="0">
         <v>3.800000</v>
       </c>
-      <c r="F35" t="n" s="0">
+      <c r="F36" t="n" s="0">
         <v>3.200000</v>
       </c>
-      <c r="G35" t="n" s="0">
+      <c r="G36" t="n" s="0">
         <v>2.300000</v>
       </c>
-      <c r="H35" t="n" s="0">
+      <c r="H36" t="n" s="0">
         <v>6.100000</v>
       </c>
-      <c r="I35" t="n" s="0">
+      <c r="I36" t="n" s="0">
         <v>8.600000</v>
       </c>
-      <c r="J35" t="n" s="0">
+      <c r="J36" t="n" s="0">
         <v>20.570000</v>
       </c>
-      <c r="K35" t="n" s="0">
+      <c r="K36" t="n" s="0">
         <v>0.600000</v>
       </c>
-      <c r="L35" t="n" s="0">
+      <c r="L36" t="n" s="0">
         <v>0.220000</v>
       </c>
-      <c r="M35" t="n" s="0">
+      <c r="M36" t="n" s="0">
         <v>11.170000</v>
       </c>
-      <c r="N35" t="n" s="0">
+      <c r="N36" t="n" s="0">
         <v>0.620000</v>
       </c>
-      <c r="O35" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P35" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="Q35" t="n" s="0">
+      <c r="O36" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P36" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="Q36" t="n" s="0">
         <v>1.600000</v>
       </c>
-      <c r="R35" t="n" s="0">
+      <c r="R36" t="n" s="0">
         <v>85.500000</v>
       </c>
-      <c r="S35" t="n" s="0">
+      <c r="S36" t="n" s="0">
         <v>5.200000</v>
       </c>
-      <c r="T35" t="n" s="0">
+      <c r="T36" t="n" s="0">
         <v>3.900000</v>
       </c>
-      <c r="U35" t="n" s="0">
+      <c r="U36" t="n" s="0">
         <v>3.100000</v>
       </c>
-      <c r="V35" t="n" s="0">
+      <c r="V36" t="n" s="0">
         <v>2.200000</v>
       </c>
-      <c r="W35" t="n" s="0">
+      <c r="W36" t="n" s="0">
         <v>6.100000</v>
       </c>
-      <c r="X35" t="n" s="0">
+      <c r="X36" t="n" s="0">
         <v>8.300000</v>
       </c>
-      <c r="Y35" t="n" s="0">
+      <c r="Y36" t="n" s="0">
         <v>20.210000</v>
       </c>
-      <c r="Z35" t="n" s="0">
+      <c r="Z36" t="n" s="0">
         <v>0.600000</v>
       </c>
-      <c r="AA35" t="n" s="0">
+      <c r="AA36" t="n" s="0">
         <v>0.220000</v>
       </c>
-      <c r="AB35" t="n" s="0">
+      <c r="AB36" t="n" s="0">
         <v>11.170000</v>
       </c>
-      <c r="AC35" t="n" s="0">
+      <c r="AC36" t="n" s="0">
         <v>0.620000</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="B36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="C36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="D36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="E36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="F36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="G36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="H36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="I36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="J36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="K36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="L36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="M36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="N36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="O36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="P36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Q36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="R36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="S36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="T36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="U36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="V36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="W36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="X36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Y36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="Z36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AA36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AB36" t="n" s="0">
-        <v/>
-      </c>
-      <c r="AC36" t="n" s="0">
-        <v/>
       </c>
     </row>
     <row r="37">
@@ -47313,6 +47400,95 @@
         <v/>
       </c>
       <c r="AC525" t="n" s="0">
+        <v/>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="B526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="C526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="D526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="E526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="F526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="G526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="H526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="I526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="J526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="K526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="L526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="M526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="N526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="O526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="P526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Q526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="R526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="S526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="T526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="U526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="V526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="W526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="X526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Y526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="Z526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AA526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AB526" t="n" s="0">
+        <v/>
+      </c>
+      <c r="AC526" t="n" s="0">
         <v/>
       </c>
     </row>
